--- a/ClassMaterials/Week2/data_sets/Transactions.xlsx
+++ b/ClassMaterials/Week2/data_sets/Transactions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Costa\Desktop\Thiago\Data Mining\IronHack\GitHub\BCNDATA0122\ClassMaterials\Week2\data_sets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555720A7-53C7-41D3-BCF4-6C9EF176DADE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="10872"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="11">
   <si>
     <t>Region</t>
   </si>
@@ -35,9 +41,6 @@
   </si>
   <si>
     <t>Sales</t>
-  </si>
-  <si>
-    <t>Saales</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,14 +113,17 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -166,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,9 +205,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +257,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,7 +449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -424,7 +464,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -435,7 +475,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -447,7 +487,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -459,7 +499,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -471,7 +511,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -483,7 +523,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -495,7 +535,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -507,7 +547,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -519,7 +559,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -531,7 +571,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -542,7 +582,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -561,7 +601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -576,7 +616,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -587,7 +627,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -599,7 +639,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -611,7 +651,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -623,7 +663,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -635,7 +675,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -647,7 +687,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -659,7 +699,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -671,7 +711,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -683,7 +723,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -695,7 +735,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -707,7 +747,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -718,7 +758,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -730,7 +770,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -758,11 +798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,18 +813,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -796,7 +836,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -808,7 +848,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -820,7 +860,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -832,7 +872,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -844,7 +884,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -856,7 +896,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -868,7 +908,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -880,7 +920,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -892,7 +932,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -904,7 +944,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -941,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -956,7 +996,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -967,7 +1007,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -979,7 +1019,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -991,7 +1031,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1003,7 +1043,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1015,7 +1055,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1027,7 +1067,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1039,7 +1079,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1051,7 +1091,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1063,7 +1103,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1075,7 +1115,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1087,7 +1127,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1099,7 +1139,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1111,7 +1151,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1123,7 +1163,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
